--- a/Input/urbs_intertemporal_2050/2035.xlsx
+++ b/Input/urbs_intertemporal_2050/2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbs-test\urbs\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0203BE-F545-469A-8C65-914869859A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A81D315-83B5-4F47-87C4-C679AB356613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -530,16 +530,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <top style="thin">
@@ -906,10 +897,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,11 +947,165 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{CBCDEB59-C5E9-40F8-9D3C-95B7A7619582}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{074DFA02-EDC2-451D-9861-8C4BC2D780ED}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{2B5DA116-94F1-478B-AF76-F53153F29A1A}"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{739D78ED-F2E7-483C-9207-430CDC4DB277}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{07DA338A-60E3-4388-8A9E-37C04CF6D4AD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{CB635ABA-746F-4390-B750-51A41595C91C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1246,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1759,13 +1904,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A12:C13 A11 C11">
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A11:C13">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2289,7 +2429,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A24:E32">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input/urbs_intertemporal_2050/2035.xlsx
+++ b/Input/urbs_intertemporal_2050/2035.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerald\Desktop\urbsextension\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A81D315-83B5-4F47-87C4-C679AB356613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F24BF-7463-49D6-87D1-9B29CD798FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="15285" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -855,9 +855,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -899,13 +899,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
@@ -919,7 +919,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -947,7 +947,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -989,7 +989,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1117,9 +1117,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1141,9 +1141,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -1165,9 +1165,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1196,9 +1196,9 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1395,9 +1395,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>9</v>
       </c>
@@ -1921,9 +1921,9 @@
       <selection activeCell="A24" sqref="A24:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0.22259999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0.47851999999999989</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>96</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>96</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>96</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>97</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>97</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>97</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>98</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>98</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>98</v>
       </c>
@@ -2459,9 +2459,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -2519,9 +2519,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>3.4999999999999999E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2771,9 +2771,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2803,15 +2803,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -2819,7 +2822,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2827,12 +2830,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4513187500</v>
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>376098958</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>376098958</v>
       </c>
     </row>
   </sheetData>

--- a/Input/urbs_intertemporal_2050/2035.xlsx
+++ b/Input/urbs_intertemporal_2050/2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\result\urbs-20250603T1601\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304F24BF-7463-49D6-87D1-9B29CD798FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7531F0-61D2-4DC5-B106-DE4ED5DA400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="960" windowWidth="28800" windowHeight="15285" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
   <si>
     <t>Property</t>
   </si>
@@ -341,15 +341,25 @@
   </si>
   <si>
     <t>Gas Plant (CCGT) CCUS</t>
+  </si>
+  <si>
+    <t>Piped Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG </t>
+  </si>
+  <si>
+    <t>Gas Plant (CCGT) LNG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -381,7 +391,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +437,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -526,11 +554,94 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="10">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -1190,209 +1301,287 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="24" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="D2" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E2" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F2" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="D3" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E3" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F3" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E4" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F4" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="20" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
-      </c>
-      <c r="E6" t="s">
+        <v>8.64</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D7">
-        <v>1.75</v>
-      </c>
-      <c r="E7" t="s">
+        <v>22.68</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>113.4</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D9">
-        <v>5.2</v>
-      </c>
-      <c r="E9" t="s">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D10">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="E10" t="s">
+        <v>6.12</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11" t="s">
+        <v>6.48</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="26" t="s">
         <v>24</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>29.94</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Commodity price (€/MWh)" prompt="Cost for purchasing one unit (MWh) of a stock or buy commodity. Revenue for selling one unit (MWh) of a sell commodity. Cost for creating one unit of environmental commodity._x000a__x000a_Multiplier for sheet &quot;Buy-Sell-Price&quot; for commodity types &quot;Buy&quot; and &quot;Sell&quot;._x000a_" sqref="D1" xr:uid="{00D2AA82-AED2-4720-BF4B-D740C2745F06}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use" prompt="For stock commodities, this value limits annual use (MWh) of this commodity. For CO2, this value limits the amount of emissions (t_CO2). If simulation timespan does not cover a full year, the sums are multiplied accordingly before (cf. 'weight' in urbs)." sqref="E1" xr:uid="{B33B3DE1-6E03-4732-A0D0-F1B78DED1ED2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Maximum commodity use per hour" prompt="For stock commodities, this value limits the energy use per hour (MW)._x000a_" sqref="F1" xr:uid="{3249234B-78F3-4FAB-8AD3-4B531B638E01}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1903,9 +2092,70 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="14" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <v>999999</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="G14" s="28">
+        <v>769358.55599999998</v>
+      </c>
+      <c r="H14" s="28">
+        <v>16725.186000000002</v>
+      </c>
+      <c r="I14" s="17">
+        <v>2.6</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="29">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L14" s="17">
+        <v>25</v>
+      </c>
+      <c r="M14" s="20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A11:C13">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14:XFD14">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1915,10 +2165,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:E32"/>
+      <selection activeCell="A33" sqref="A33:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2427,21 +2677,74 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="11">
+        <v>1</v>
+      </c>
+      <c r="E33" s="11">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="27">
+        <v>0.61</v>
+      </c>
+      <c r="E34" s="11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.1855</v>
+      </c>
+      <c r="E35" s="11">
+        <f>D35*E33</f>
+        <v>0.22259999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A24:E32">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E32">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
         <color rgb="FF638EC6"/>
       </dataBar>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="2"/>
@@ -2449,7 +2752,86 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A33 E34:E35 C33:E33 A34:C35">
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:E33 E34:E35">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1213976A-3A50-4C00-8F16-3A3FD8581CEB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7D10B3FF-C8BF-44F5-86FB-08C1D2769435}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1213976A-3A50-4C00-8F16-3A3FD8581CEB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33:E33 E34:E35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7D10B3FF-C8BF-44F5-86FB-08C1D2769435}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2805,7 +3187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>

--- a/Input/urbs_intertemporal_2050/2035.xlsx
+++ b/Input/urbs_intertemporal_2050/2035.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\result\urbs-20250603T1601\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7531F0-61D2-4DC5-B106-DE4ED5DA400C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5709A06E-A9F6-44A0-8DE2-DE3B1C0E2264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
   <si>
     <t>Property</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>inf</t>
-  </si>
-  <si>
-    <t>Gas</t>
   </si>
   <si>
     <t>CO2</t>
@@ -569,52 +566,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <border>
         <top style="thin">
@@ -1018,16 +970,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,13 +1184,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1256,13 +1208,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1398,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>23</v>
@@ -1466,10 +1418,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="D8">
         <v>113.4</v>
@@ -1486,7 +1438,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>23</v>
@@ -1506,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>23</v>
@@ -1526,7 +1478,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>23</v>
@@ -1546,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>23</v>
@@ -1563,7 +1515,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B10:B12">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1580,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -1591,40 +1543,40 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1632,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1670,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1708,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1746,7 +1698,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1784,7 +1736,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1822,7 +1774,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1860,7 +1812,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1898,7 +1850,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1936,7 +1888,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1974,7 +1926,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="21">
         <v>0</v>
@@ -2015,7 +1967,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="21">
         <v>0</v>
@@ -2056,7 +2008,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C13" s="21">
         <v>0</v>
@@ -2097,7 +2049,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="21">
         <v>0</v>
@@ -2134,28 +2086,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:C13">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="A11:C14">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:XFD14">
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2167,38 +2104,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2206,13 +2143,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -2220,13 +2157,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2234,13 +2171,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2248,13 +2185,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -2265,13 +2202,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>0.42</v>
@@ -2279,13 +2216,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>0.36299999999999999</v>
@@ -2296,13 +2233,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
+        <v>48</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2313,13 +2250,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>0.61</v>
@@ -2327,13 +2264,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>0.1855</v>
@@ -2344,13 +2281,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2358,13 +2295,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0.35</v>
@@ -2372,13 +2309,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2386,13 +2323,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2400,13 +2337,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>0.38</v>
@@ -2414,13 +2351,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2431,13 +2368,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>0.46</v>
@@ -2445,13 +2382,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>0.34179999999999999</v>
@@ -2462,13 +2399,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2476,13 +2413,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2490,13 +2427,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2504,13 +2441,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2518,13 +2455,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="11">
         <v>1</v>
@@ -2536,13 +2473,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="11">
         <v>3.6999999999999998E-2</v>
@@ -2554,13 +2491,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="11">
         <v>3.4180000000000002E-2</v>
@@ -2572,13 +2509,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="11">
         <v>1</v>
@@ -2590,13 +2527,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="11">
         <v>0.33</v>
@@ -2608,13 +2545,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="11">
         <v>3.6299999999999999E-2</v>
@@ -2626,13 +2563,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="C30" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -2643,13 +2580,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="11">
         <v>0.46</v>
@@ -2661,13 +2598,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" s="11">
         <v>1.8550000000000001E-2</v>
@@ -2679,13 +2616,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="11">
         <v>1</v>
@@ -2696,13 +2633,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="27">
         <v>0.61</v>
@@ -2714,13 +2651,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="7">
         <v>0.1855</v>
@@ -2731,9 +2668,28 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A24:E32">
-    <cfRule type="expression" dxfId="8" priority="6">
+  <conditionalFormatting sqref="A34:C35 E34:E35">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:E29 A31:E33 A30 C30:E30">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="2"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7D10B3FF-C8BF-44F5-86FB-08C1D2769435}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E32">
@@ -2752,16 +2708,6 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A33 E34:E35 C33:E33 A34:C35">
-    <cfRule type="expression" dxfId="6" priority="5">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D33:E33 E34:E35">
     <cfRule type="dataBar" priority="3">
       <dataBar>
@@ -2776,29 +2722,25 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="2"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7D10B3FF-C8BF-44F5-86FB-08C1D2769435}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B33">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7D10B3FF-C8BF-44F5-86FB-08C1D2769435}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D33</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1213976A-3A50-4C00-8F16-3A3FD8581CEB}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -2813,21 +2755,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>D33:E33 E34:E35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7D10B3FF-C8BF-44F5-86FB-08C1D2769435}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2845,49 +2772,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2908,61 +2835,61 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -2970,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
@@ -3029,7 +2956,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -3088,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -3163,19 +3090,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3198,10 +3125,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Input/urbs_intertemporal_2050/2035.xlsx
+++ b/Input/urbs_intertemporal_2050/2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxoi\GitHub\urbs-extension\Input\urbs_intertemporal_2050\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5709A06E-A9F6-44A0-8DE2-DE3B1C0E2264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929D1829-B08E-45F6-A927-189737E99F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-1935" windowWidth="29040" windowHeight="17520" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="95">
   <si>
     <t>Property</t>
   </si>
@@ -94,15 +94,9 @@
     <t>maxperhour</t>
   </si>
   <si>
-    <t>WindOff</t>
-  </si>
-  <si>
     <t>SupIm</t>
   </si>
   <si>
-    <t>WindOn</t>
-  </si>
-  <si>
     <t>Hydro</t>
   </si>
   <si>
@@ -172,12 +166,6 @@
     <t>area-per-cap</t>
   </si>
   <si>
-    <t>Wind (onshore)</t>
-  </si>
-  <si>
-    <t>Wind (offshore)</t>
-  </si>
-  <si>
     <t>Hydro (run-of-river)</t>
   </si>
   <si>
@@ -308,12 +296,6 @@
   </si>
   <si>
     <t>EU27.Elec</t>
-  </si>
-  <si>
-    <t>EU27.WindOff</t>
-  </si>
-  <si>
-    <t>EU27.WindOn</t>
   </si>
   <si>
     <t>EU27.Hydro</t>
@@ -960,216 +942,127 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C3">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C7">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C9">
-        <v>0.3</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.3</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C11">
-        <v>0.3</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C12">
-        <v>0.3</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.48099999999999998</v>
-      </c>
-      <c r="C14">
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="6">
         <v>0.20699999999999999</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="B2:C2" xr:uid="{739D78ED-F2E7-483C-9207-430CDC4DB277}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Hydro" prompt="Normalized capacity factor (maximum value 1) of hydro power. Determines EPrIn of processes with input commodity Hydro." sqref="C1" xr:uid="{07DA338A-60E3-4388-8A9E-37C04CF6D4AD}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Capacity factor Wind" prompt="Normalized capacity factor (maximum value 1) of wind power. Determines EPrIn of processes with input commodity Wind." sqref="B1" xr:uid="{CB635ABA-746F-4390-B750-51A41595C91C}"/>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1184,13 +1077,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1208,13 +1101,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1253,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F12"/>
+      <selection activeCell="C2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,10 +1179,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="20" t="e">
         <f>NA()</f>
@@ -1312,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="20" t="e">
         <f>NA()</f>
@@ -1332,22 +1225,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E4" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F4" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>8.64</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1355,22 +1245,19 @@
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E5" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="20" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+      <c r="D5">
+        <v>22.68</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1378,19 +1265,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>8.64</v>
+        <v>113.4</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1398,19 +1285,19 @@
         <v>9</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>22.68</v>
+        <v>67.680000000000007</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1418,19 +1305,19 @@
         <v>9</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>113.4</v>
+        <v>6.12</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,16 +1328,16 @@
         <v>27</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>67.680000000000007</v>
+        <v>6.48</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1458,63 +1345,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>6.12</v>
+        <v>29.94</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
-        <v>6.48</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>29.94</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B10:B12">
+  <conditionalFormatting sqref="B8:B10">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -1530,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="C2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1543,40 +1390,40 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1584,25 +1431,25 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>629877</v>
+        <v>46710</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1111284.9280000001</v>
+        <v>2676029.7599999998</v>
       </c>
       <c r="H2">
-        <v>13463.644319999999</v>
+        <v>9143.1016799999998</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1614,7 +1461,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L2">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1622,28 +1469,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>240293.44961681671</v>
+        <v>59840</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2062288.3759999999</v>
+        <v>3345037.2</v>
       </c>
       <c r="H3">
-        <v>38574.409520000001</v>
+        <v>28432.799999999999</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1652,7 +1499,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1660,28 +1507,28 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>46710</v>
+      <c r="D4" s="22">
+        <v>999999</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>2676029.7599999998</v>
+        <v>1784013.3448000001</v>
       </c>
       <c r="H4">
-        <v>9143.1016799999998</v>
+        <v>28544.213516799999</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1690,7 +1537,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L4">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1698,28 +1545,28 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>59840</v>
+      <c r="D5" s="22">
+        <v>999999</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G5">
-        <v>3345037.2</v>
+        <v>2230016.6809999999</v>
       </c>
       <c r="H5">
-        <v>28432.799999999999</v>
+        <v>47276.353627999997</v>
       </c>
       <c r="I5">
-        <v>0.35699999999999998</v>
+        <v>4.5</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1728,7 +1575,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L5">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1736,7 +1583,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1745,19 +1592,19 @@
         <v>999999</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G6">
-        <v>1784013.3448000001</v>
+        <v>769358.55599999998</v>
       </c>
       <c r="H6">
-        <v>28544.213516799999</v>
+        <v>16725.186000000002</v>
       </c>
       <c r="I6">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1766,7 +1613,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1774,28 +1621,28 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="22">
-        <v>999999</v>
+      <c r="D7">
+        <v>94200</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>2230016.6809999999</v>
+        <v>5630812.6200000001</v>
       </c>
       <c r="H7">
-        <v>47276.353627999997</v>
+        <v>128226.42600000001</v>
       </c>
       <c r="I7">
-        <v>4.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1804,7 +1651,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1812,28 +1659,28 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8" s="22">
-        <v>999999</v>
+      <c r="D8">
+        <v>999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>769358.55599999998</v>
+        <v>5648000</v>
       </c>
       <c r="H8">
-        <v>16725.186000000002</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2.6</v>
+        <v>53.2</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1845,80 +1692,86 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>94200</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>5630812.6200000001</v>
-      </c>
-      <c r="H9">
-        <v>128226.42600000001</v>
-      </c>
-      <c r="I9">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="L9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3512276.2719999999</v>
+      </c>
+      <c r="H9" s="17">
+        <v>72141.039619999996</v>
+      </c>
+      <c r="I9" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L9" s="17">
+        <v>40</v>
+      </c>
+      <c r="M9" s="20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>999999999999</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>5648000</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>53.2</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="L10">
-        <v>25</v>
+      <c r="B10" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0.65</v>
+      </c>
+      <c r="G10" s="17">
+        <v>3813328.52428</v>
+      </c>
+      <c r="H10" s="17">
+        <v>72475.542125599997</v>
+      </c>
+      <c r="I10" s="17">
+        <v>6.7</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="19">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="L10" s="17">
+        <v>40</v>
+      </c>
+      <c r="M10" s="20" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -1926,7 +1779,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C11" s="21">
         <v>0</v>
@@ -1935,19 +1788,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F11" s="16">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G11" s="17">
-        <v>3512276.2719999999</v>
+        <v>1811895.1500000001</v>
       </c>
       <c r="H11" s="17">
-        <v>72141.039619999996</v>
+        <v>42593.5</v>
       </c>
       <c r="I11" s="17">
-        <v>6.5</v>
+        <v>3.33</v>
       </c>
       <c r="J11" s="18">
         <v>0</v>
@@ -1956,7 +1809,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="L11" s="17">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M11" s="20" t="e">
         <v>#N/A</v>
@@ -1966,132 +1819,50 @@
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>96</v>
+      <c r="B12" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="C12" s="21">
         <v>0</v>
       </c>
-      <c r="D12" s="14">
-        <v>0</v>
+      <c r="D12" s="22">
+        <v>999999</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F12" s="16">
-        <v>0.65</v>
-      </c>
-      <c r="G12" s="17">
-        <v>3813328.52428</v>
-      </c>
-      <c r="H12" s="17">
-        <v>72475.542125599997</v>
+        <v>0.25</v>
+      </c>
+      <c r="G12" s="28">
+        <v>769358.55599999998</v>
+      </c>
+      <c r="H12" s="28">
+        <v>16725.186000000002</v>
       </c>
       <c r="I12" s="17">
-        <v>6.7</v>
+        <v>2.6</v>
       </c>
       <c r="J12" s="18">
         <v>0</v>
       </c>
-      <c r="K12" s="19">
-        <v>7.0999999999999994E-2</v>
+      <c r="K12" s="29">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="L12" s="17">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M12" s="20" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="21">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="G13" s="17">
-        <v>1811895.1500000001</v>
-      </c>
-      <c r="H13" s="17">
-        <v>42593.5</v>
-      </c>
-      <c r="I13" s="17">
-        <v>3.33</v>
-      </c>
-      <c r="J13" s="18">
-        <v>0</v>
-      </c>
-      <c r="K13" s="19">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L13" s="17">
-        <v>25</v>
-      </c>
-      <c r="M13" s="20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="21">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22">
-        <v>999999</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="28">
-        <v>769358.55599999998</v>
-      </c>
-      <c r="H14" s="28">
-        <v>16725.186000000002</v>
-      </c>
-      <c r="I14" s="17">
-        <v>2.6</v>
-      </c>
-      <c r="J14" s="18">
-        <v>0</v>
-      </c>
-      <c r="K14" s="29">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="L14" s="17">
-        <v>25</v>
-      </c>
-      <c r="M14" s="20" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A11:C14">
+  <conditionalFormatting sqref="A9:C12">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:XFD14">
+  <conditionalFormatting sqref="N12:XFD12">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
@@ -2102,57 +1873,60 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2160,365 +1934,377 @@
         <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+        <v>44</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>0.42</v>
+        <v>0.1855</v>
+      </c>
+      <c r="E7">
+        <v>0.22259999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8">
-        <v>0.36299999999999999</v>
-      </c>
-      <c r="E8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>98</v>
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1.2</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D10">
-        <v>0.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>0.1855</v>
-      </c>
-      <c r="E11">
-        <v>0.22259999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
       <c r="D13">
-        <v>0.35</v>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1.4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.47851999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>0.38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>1.4</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>0.46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>0.34179999999999999</v>
-      </c>
-      <c r="E19">
-        <v>0.47851999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20">
+      <c r="A20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="11">
         <v>1</v>
       </c>
+      <c r="E20" s="11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21">
+      <c r="A21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E21" s="11">
+        <f>D21*E19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="11">
+        <v>3.4180000000000002E-2</v>
+      </c>
+      <c r="E22" s="11" t="e">
+        <f>D22*E20</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="E23" s="11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="11" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
+        <v>0.33</v>
+      </c>
+      <c r="E24" s="11">
+        <f>D24*E21</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D25" s="11">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="E25" s="11">
+        <v>3.6299999999999999E-2</v>
+      </c>
+      <c r="E25" s="11" t="e">
         <f>D25*E23</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D26" s="11">
-        <v>3.4180000000000002E-2</v>
-      </c>
-      <c r="E26" s="11" t="e">
-        <f>D26*E24</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="E26" s="11">
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D27" s="11">
-        <v>1</v>
+        <v>0.46</v>
       </c>
       <c r="E27" s="11" t="e">
         <f>NA()</f>
@@ -2527,158 +2313,87 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D28" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="E28" s="11">
-        <f>D28*E25</f>
-        <v>0</v>
+        <v>1.8550000000000001E-2</v>
+      </c>
+      <c r="E28" s="11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D29" s="11">
-        <v>3.6299999999999999E-2</v>
-      </c>
-      <c r="E29" s="11" t="e">
-        <f>D29*E27</f>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="E29" s="11">
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="11">
-        <v>1</v>
-      </c>
-      <c r="E30" s="11">
-        <v>1.2</v>
+        <v>51</v>
+      </c>
+      <c r="D30" s="27">
+        <v>0.61</v>
+      </c>
+      <c r="E30" s="11" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="11">
-        <v>0.46</v>
-      </c>
-      <c r="E31" s="11" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="11">
-        <v>1.8550000000000001E-2</v>
-      </c>
-      <c r="E32" s="11" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="11">
-        <v>1</v>
-      </c>
-      <c r="E33" s="11">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="27">
-        <v>0.61</v>
-      </c>
-      <c r="E34" s="11" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="7">
+        <v>51</v>
+      </c>
+      <c r="D31" s="7">
         <v>0.1855</v>
       </c>
-      <c r="E35" s="11">
-        <f>D35*E33</f>
+      <c r="E31" s="11">
+        <f>D31*E29</f>
         <v>0.22259999999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A34:C35 E34:E35">
+  <conditionalFormatting sqref="A30:C31 E30:E31">
     <cfRule type="expression" dxfId="1" priority="5">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:E29 A31:E33 A30 C30:E30">
+  <conditionalFormatting sqref="A20:E25 A26 C26:E26 A27:E29">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(EXACT(INDIRECT("Z"&amp;ROW()-1&amp;"S1",FALSE()), INDIRECT("Z"&amp;ROW()&amp;"S1",FALSE())))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
+  <conditionalFormatting sqref="D29">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2692,7 +2407,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:E32">
+  <conditionalFormatting sqref="D20:E28">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2708,7 +2423,7 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:E33 E34:E35">
+  <conditionalFormatting sqref="D29:E29 E30:E31">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2739,7 +2454,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1213976A-3A50-4C00-8F16-3A3FD8581CEB}">
@@ -2754,7 +2469,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:E33 E34:E35</xm:sqref>
+          <xm:sqref>D29:E29 E30:E31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2772,49 +2487,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2835,61 +2550,61 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -2897,22 +2612,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>0.69</v>
@@ -2956,22 +2671,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>0.9</v>
@@ -3015,22 +2730,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4">
         <v>0.86</v>
@@ -3090,19 +2805,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3125,10 +2840,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
